--- a/biology/Botanique/Meslier_Saint-François/Meslier_Saint-François.xlsx
+++ b/biology/Botanique/Meslier_Saint-François/Meslier_Saint-François.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meslier_Saint-Fran%C3%A7ois</t>
+          <t>Meslier_Saint-François</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le meslier Saint-François B est un cépage français de vigne blanc.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meslier_Saint-Fran%C3%A7ois</t>
+          <t>Meslier_Saint-François</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des tests génétiques ont révélé que ce cépage est issu du métissage entre le gouais B et le chenin B[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des tests génétiques ont révélé que ce cépage est issu du métissage entre le gouais B et le chenin B.
 Originaire du Gâtinais, au sud du bassin parisien, ce cépage a conquis toute la façade Atlantique du vignoble français. Sa faveur auprès des producteurs est toutefois en grande chute, sa surface étant passée de 2 300 hectares en 1958 à seulement 50 ha en 1994[a 1].
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Meslier_Saint-Fran%C3%A7ois</t>
+          <t>Meslier_Saint-François</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les éléments de reconnaissance ampélographiques sont les suivants :
 Bourgeonnement cotonneux et jeunes feuilles de couleur verte.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meslier_Saint-Fran%C3%A7ois</t>
+          <t>Meslier_Saint-François</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Peu vigoureux, c'est néanmoins un cépage fertile. Sa précocité de débourrement (trois jours avant le chasselas) le rend sensible aux gelées printanières ; les seconds bourgeons sont cependant relativement fertiles.
-Sensibilité
-Assez résistant au mildiou, à la pourriture grise et au black rot, il craint nettement plus l'oïdium.
-Technologiques
-Il donne des vins légers, plats et peu alcooliques de faible qualité. En revanche, une fois distillés, ses eaux de vie sont fines et bouquetées. Pour cette qualité, il est répertorié dans les cépages aptes à la production d'armagnac ou de cognac.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu vigoureux, c'est néanmoins un cépage fertile. Sa précocité de débourrement (trois jours avant le chasselas) le rend sensible aux gelées printanières ; les seconds bourgeons sont cependant relativement fertiles.
 </t>
         </is>
       </c>
@@ -597,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Meslier_Saint-Fran%C3%A7ois</t>
+          <t>Meslier_Saint-François</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,12 +629,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez résistant au mildiou, à la pourriture grise et au black rot, il craint nettement plus l'oïdium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Meslier_Saint-François</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Meslier_Saint-Fran%C3%A7ois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne des vins légers, plats et peu alcooliques de faible qualité. En revanche, une fois distillés, ses eaux de vie sont fines et bouquetées. Pour cette qualité, il est répertorié dans les cépages aptes à la production d'armagnac ou de cognac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Meslier_Saint-François</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Meslier_Saint-Fran%C3%A7ois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le meslier Saint-François peut aussi porter les noms de[2]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le meslier Saint-François peut aussi porter les noms de:
 Anereau
 Annereau
 Blanc ramé
